--- a/docs/library_catalog/library_catalog_2024-03-28T0018Z.xlsx
+++ b/docs/library_catalog/library_catalog_2024-03-28T0018Z.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/ASK/docs/library_catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B24166B-2F46-BB46-B755-C1103AB744AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9311D605-BAA9-7744-8F5A-9EA7DA548678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="860" windowWidth="31460" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="1395">
   <si>
     <t>title</t>
   </si>
@@ -3266,18 +3266,6 @@
     <t>eab5ce5d-30e6-5115-b142-e6882bbca2e2</t>
   </si>
   <si>
-    <t>2002-11-29T12:10Z</t>
-  </si>
-  <si>
-    <t>2012-11-29T00:10Z</t>
-  </si>
-  <si>
-    <t>CI 16500.16A</t>
-  </si>
-  <si>
-    <t>Auxiliary Aids to Navigation Program CI_16500_16A_1995-06-05</t>
-  </si>
-  <si>
     <t>Auxiliary_Intro_to_Marine_Safety_and_Environmental Protection_IMSEP_Final_2022-12-01</t>
   </si>
   <si>
@@ -3386,9 +3374,6 @@
     <t>COAST GUARD AUXILIARY OPERATIONAL EXCELLENCE PROGRAM CI_16794_4</t>
   </si>
   <si>
-    <t>2022-07-27T09:12Z</t>
-  </si>
-  <si>
     <t>2032-07-26T21:12Z</t>
   </si>
   <si>
@@ -4076,9 +4061,6 @@
     <t>AUX FIN CONTROL SOP APPENDIX B</t>
   </si>
   <si>
-    <t>CI  16500 16A   COAST GUARD AUXILIARY AIDS TO NAVIGATION PROGRAM</t>
-  </si>
-  <si>
     <t>Auxiliary Intro to Marine Safety and Environmental Protection IMSEP</t>
   </si>
   <si>
@@ -4178,9 +4160,6 @@
     <t>98598f44-0850-5282-bc8c-91ad0416ceb3</t>
   </si>
   <si>
-    <t>d0af926d-4254-5ddf-8a2a-c91eff57c691</t>
-  </si>
-  <si>
     <t>82d0910f-4df3-5806-bff4-43ba78fbe398</t>
   </si>
   <si>
@@ -4224,6 +4203,24 @@
   </si>
   <si>
     <t>Auxiliary Boat Crew Training Handbook- ATH 16115</t>
+  </si>
+  <si>
+    <t>Coast_Guard_Aids_to_Navigation_Program_Handbook_16500.16_Electronic_Signature</t>
+  </si>
+  <si>
+    <t>COAST GUARD AUXILIARY AIDS TO NAVIGATION PROGRAM HANDBOOK</t>
+  </si>
+  <si>
+    <t>2024-03-28T09:12Z</t>
+  </si>
+  <si>
+    <t>2024-03-24T00:01Z</t>
+  </si>
+  <si>
+    <t>2034-03-24T00:01Z</t>
+  </si>
+  <si>
+    <t>fe2dc3ce-387a-5c6e-be60-af5e15a83141</t>
   </si>
 </sst>
 </file>
@@ -4599,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4695,7 +4692,7 @@
         <v>743</v>
       </c>
       <c r="I2" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -4710,7 +4707,7 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -4724,7 +4721,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4748,7 +4745,7 @@
         <v>897</v>
       </c>
       <c r="I3" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -4763,7 +4760,7 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
@@ -4801,7 +4798,7 @@
         <v>635</v>
       </c>
       <c r="I4" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -4816,7 +4813,7 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
@@ -4854,7 +4851,7 @@
         <v>505</v>
       </c>
       <c r="I5" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
@@ -4907,7 +4904,7 @@
         <v>487</v>
       </c>
       <c r="I6" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -4922,7 +4919,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -4960,7 +4957,7 @@
         <v>415</v>
       </c>
       <c r="I7" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -4975,7 +4972,7 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -4989,7 +4986,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -4998,10 +4995,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F8" t="s">
         <v>1072</v>
@@ -5010,10 +5007,10 @@
         <v>1072</v>
       </c>
       <c r="H8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="I8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -5022,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="M8" t="s">
         <v>1074</v>
@@ -5031,10 +5028,10 @@
         <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="Q8" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -5063,7 +5060,7 @@
         <v>421</v>
       </c>
       <c r="I9" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -5078,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -5101,10 +5098,10 @@
         <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E10" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="F10" t="s">
         <v>1072</v>
@@ -5113,10 +5110,10 @@
         <v>1072</v>
       </c>
       <c r="H10" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="I10" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -5125,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="M10" t="s">
         <v>1074</v>
@@ -5134,15 +5131,15 @@
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="Q10" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -5151,10 +5148,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E11" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="F11" t="s">
         <v>1072</v>
@@ -5163,10 +5160,10 @@
         <v>1072</v>
       </c>
       <c r="H11" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="I11" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -5181,10 +5178,10 @@
         <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="Q11" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -5213,7 +5210,7 @@
         <v>695</v>
       </c>
       <c r="I12" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -5228,7 +5225,7 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O12" t="s">
         <v>24</v>
@@ -5266,7 +5263,7 @@
         <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -5281,7 +5278,7 @@
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
@@ -5319,7 +5316,7 @@
         <v>659</v>
       </c>
       <c r="I14" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -5334,7 +5331,7 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
@@ -5372,7 +5369,7 @@
         <v>541</v>
       </c>
       <c r="I15" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -5387,7 +5384,7 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -5410,10 +5407,10 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E16" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="F16" t="s">
         <v>1072</v>
@@ -5422,10 +5419,10 @@
         <v>1072</v>
       </c>
       <c r="H16" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="I16" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -5434,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="M16" t="s">
         <v>1074</v>
@@ -5443,10 +5440,10 @@
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="Q16" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -5475,7 +5472,7 @@
         <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -5490,7 +5487,7 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O17" t="s">
         <v>24</v>
@@ -5504,7 +5501,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -5528,7 +5525,7 @@
         <v>853</v>
       </c>
       <c r="I18" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -5575,7 +5572,7 @@
         <v>357</v>
       </c>
       <c r="I19" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -5590,7 +5587,7 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O19" t="s">
         <v>24</v>
@@ -5628,7 +5625,7 @@
         <v>713</v>
       </c>
       <c r="I20" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -5643,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O20" t="s">
         <v>24</v>
@@ -5681,7 +5678,7 @@
         <v>439</v>
       </c>
       <c r="I21" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -5696,7 +5693,7 @@
         <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O21" t="s">
         <v>24</v>
@@ -5734,7 +5731,7 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -5749,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O22" t="s">
         <v>24</v>
@@ -5787,7 +5784,7 @@
         <v>267</v>
       </c>
       <c r="I23" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -5802,7 +5799,7 @@
         <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O23" t="s">
         <v>24</v>
@@ -5840,7 +5837,7 @@
         <v>571</v>
       </c>
       <c r="I24" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -5855,7 +5852,7 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
@@ -5893,7 +5890,7 @@
         <v>683</v>
       </c>
       <c r="I25" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -5908,7 +5905,7 @@
         <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O25" t="s">
         <v>24</v>
@@ -5946,7 +5943,7 @@
         <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -5961,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
@@ -5975,7 +5972,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -5984,22 +5981,22 @@
         <v>497</v>
       </c>
       <c r="D27" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E27" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F27" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G27" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H27" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I27" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -6008,22 +6005,22 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="M27" t="s">
         <v>1074</v>
       </c>
       <c r="N27" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="O27" t="s">
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="Q27" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -6052,7 +6049,7 @@
         <v>547</v>
       </c>
       <c r="I28" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -6067,7 +6064,7 @@
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
@@ -6105,7 +6102,7 @@
         <v>677</v>
       </c>
       <c r="I29" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -6120,7 +6117,7 @@
         <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O29" t="s">
         <v>24</v>
@@ -6134,7 +6131,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -6158,7 +6155,7 @@
         <v>820</v>
       </c>
       <c r="I30" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -6205,7 +6202,7 @@
         <v>619</v>
       </c>
       <c r="I31" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -6220,7 +6217,7 @@
         <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
@@ -6258,7 +6255,7 @@
         <v>201</v>
       </c>
       <c r="I32" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -6273,7 +6270,7 @@
         <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O32" t="s">
         <v>24</v>
@@ -6311,7 +6308,7 @@
         <v>755</v>
       </c>
       <c r="I33" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -6326,7 +6323,7 @@
         <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O33" t="s">
         <v>24</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1346</v>
+        <v>1390</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -6349,48 +6346,51 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>1076</v>
+        <v>1392</v>
       </c>
       <c r="E34" t="s">
-        <v>1076</v>
+        <v>1392</v>
       </c>
       <c r="F34" t="s">
-        <v>1072</v>
+        <v>1392</v>
       </c>
       <c r="G34" t="s">
-        <v>1072</v>
+        <v>1392</v>
       </c>
       <c r="H34" t="s">
-        <v>1077</v>
+        <v>1393</v>
       </c>
       <c r="I34" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>16500.16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
         <v>1291</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1074</v>
-      </c>
       <c r="O34" t="s">
         <v>24</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>1380</v>
+      <c r="P34" s="3" t="s">
+        <v>1394</v>
       </c>
       <c r="Q34" t="s">
-        <v>1079</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -6399,22 +6399,22 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>1116</v>
+        <v>1391</v>
       </c>
       <c r="E35" t="s">
-        <v>1116</v>
+        <v>1391</v>
       </c>
       <c r="F35" t="s">
-        <v>1072</v>
+        <v>1391</v>
       </c>
       <c r="G35" t="s">
-        <v>1072</v>
+        <v>1391</v>
       </c>
       <c r="H35" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="I35" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="M35" t="s">
         <v>1074</v>
@@ -6431,16 +6431,16 @@
       <c r="O35" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>1379</v>
+      <c r="P35" s="3" t="s">
+        <v>1373</v>
       </c>
       <c r="Q35" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -6449,10 +6449,10 @@
         <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E36" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="F36" t="s">
         <v>1072</v>
@@ -6461,10 +6461,10 @@
         <v>1072</v>
       </c>
       <c r="H36" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I36" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="M36" t="s">
         <v>1074</v>
@@ -6481,16 +6481,16 @@
       <c r="O36" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>1381</v>
+      <c r="P36" s="3" t="s">
+        <v>1374</v>
       </c>
       <c r="Q36" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -6499,22 +6499,22 @@
         <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="E37" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F37" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G37" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H37" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="I37" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="M37" t="s">
         <v>1074</v>
       </c>
       <c r="N37" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="O37" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>1382</v>
+      <c r="P37" s="3" t="s">
+        <v>1375</v>
       </c>
       <c r="Q37" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>219</v>
       </c>
       <c r="I38" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O38" t="s">
         <v>24</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -6605,10 +6605,10 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="E39" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="F39" t="s">
         <v>1072</v>
@@ -6617,10 +6617,10 @@
         <v>1072</v>
       </c>
       <c r="H39" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="I39" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -6635,15 +6635,15 @@
         <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="Q39" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -6652,22 +6652,22 @@
         <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E40" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G40" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H40" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="I40" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -6676,27 +6676,27 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="M40" t="s">
         <v>1074</v>
       </c>
       <c r="N40" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O40" t="s">
         <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="Q40" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -6705,22 +6705,22 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="E41" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F41" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G41" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H41" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I41" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -6729,22 +6729,22 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="M41" t="s">
         <v>1074</v>
       </c>
       <c r="N41" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="O41" t="s">
         <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="Q41" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -6773,7 +6773,7 @@
         <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O42" t="s">
         <v>24</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -6811,10 +6811,10 @@
         <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E43" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="F43" t="s">
         <v>1072</v>
@@ -6823,10 +6823,10 @@
         <v>1072</v>
       </c>
       <c r="H43" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="I43" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="M43" t="s">
         <v>1074</v>
@@ -6844,10 +6844,10 @@
         <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="Q43" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -6876,7 +6876,7 @@
         <v>629</v>
       </c>
       <c r="I44" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -6891,7 +6891,7 @@
         <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O44" t="s">
         <v>24</v>
@@ -6929,7 +6929,7 @@
         <v>1027</v>
       </c>
       <c r="I45" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -6944,7 +6944,7 @@
         <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O45" t="s">
         <v>24</v>
@@ -6982,7 +6982,7 @@
         <v>773</v>
       </c>
       <c r="I46" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -6997,7 +6997,7 @@
         <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O46" t="s">
         <v>24</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -7035,7 +7035,7 @@
         <v>829</v>
       </c>
       <c r="I47" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -7082,7 +7082,7 @@
         <v>731</v>
       </c>
       <c r="I48" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -7097,7 +7097,7 @@
         <v>23</v>
       </c>
       <c r="N48" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O48" t="s">
         <v>24</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -7120,22 +7120,22 @@
         <v>382</v>
       </c>
       <c r="D49" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="E49" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="F49" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G49" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H49" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="I49" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="M49" t="s">
         <v>1074</v>
@@ -7153,15 +7153,15 @@
         <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="Q49" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -7185,7 +7185,7 @@
         <v>834</v>
       </c>
       <c r="I50" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>339</v>
       </c>
       <c r="I51" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -7247,7 +7247,7 @@
         <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O51" t="s">
         <v>24</v>
@@ -7285,7 +7285,7 @@
         <v>279</v>
       </c>
       <c r="I52" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -7300,7 +7300,7 @@
         <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O52" t="s">
         <v>24</v>
@@ -7338,7 +7338,7 @@
         <v>369</v>
       </c>
       <c r="I53" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -7353,7 +7353,7 @@
         <v>23</v>
       </c>
       <c r="N53" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O53" t="s">
         <v>24</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -7391,7 +7391,7 @@
         <v>989</v>
       </c>
       <c r="I54" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
@@ -7406,7 +7406,7 @@
         <v>23</v>
       </c>
       <c r="N54" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O54" t="s">
         <v>24</v>
@@ -7444,7 +7444,7 @@
         <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>23</v>
       </c>
       <c r="N55" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O55" t="s">
         <v>24</v>
@@ -7497,7 +7497,7 @@
         <v>511</v>
       </c>
       <c r="I56" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -7512,7 +7512,7 @@
         <v>23</v>
       </c>
       <c r="N56" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O56" t="s">
         <v>24</v>
@@ -7550,7 +7550,7 @@
         <v>381</v>
       </c>
       <c r="I57" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -7565,7 +7565,7 @@
         <v>23</v>
       </c>
       <c r="N57" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O57" t="s">
         <v>24</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -7588,22 +7588,22 @@
         <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="E58" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F58" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G58" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H58" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="I58" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
@@ -7612,22 +7612,22 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="M58" t="s">
         <v>1074</v>
       </c>
       <c r="N58" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="O58" t="s">
         <v>24</v>
       </c>
       <c r="P58" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="Q58" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -7656,7 +7656,7 @@
         <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>23</v>
       </c>
       <c r="N59" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O59" t="s">
         <v>24</v>
@@ -7709,7 +7709,7 @@
         <v>871</v>
       </c>
       <c r="I60" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -7724,7 +7724,7 @@
         <v>23</v>
       </c>
       <c r="N60" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O60" t="s">
         <v>24</v>
@@ -7762,7 +7762,7 @@
         <v>113</v>
       </c>
       <c r="I61" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>23</v>
       </c>
       <c r="N61" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O61" t="s">
         <v>24</v>
@@ -7815,7 +7815,7 @@
         <v>137</v>
       </c>
       <c r="I62" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -7830,7 +7830,7 @@
         <v>23</v>
       </c>
       <c r="N62" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O62" t="s">
         <v>24</v>
@@ -7868,7 +7868,7 @@
         <v>589</v>
       </c>
       <c r="I63" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>23</v>
       </c>
       <c r="N63" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O63" t="s">
         <v>24</v>
@@ -7921,7 +7921,7 @@
         <v>481</v>
       </c>
       <c r="I64" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -7936,7 +7936,7 @@
         <v>23</v>
       </c>
       <c r="N64" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O64" t="s">
         <v>24</v>
@@ -7974,7 +7974,7 @@
         <v>433</v>
       </c>
       <c r="I65" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -7989,7 +7989,7 @@
         <v>23</v>
       </c>
       <c r="N65" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O65" t="s">
         <v>24</v>
@@ -8027,7 +8027,7 @@
         <v>934</v>
       </c>
       <c r="I66" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="N66" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O66" t="s">
         <v>24</v>
@@ -8080,7 +8080,7 @@
         <v>195</v>
       </c>
       <c r="I67" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -8095,7 +8095,7 @@
         <v>23</v>
       </c>
       <c r="N67" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O67" t="s">
         <v>24</v>
@@ -8133,7 +8133,7 @@
         <v>83</v>
       </c>
       <c r="I68" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
@@ -8148,7 +8148,7 @@
         <v>23</v>
       </c>
       <c r="N68" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O68" t="s">
         <v>24</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -8171,22 +8171,22 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E69" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="F69" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G69" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H69" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="I69" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
@@ -8195,22 +8195,22 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="M69" t="s">
         <v>1074</v>
       </c>
       <c r="N69" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O69" t="s">
         <v>24</v>
       </c>
       <c r="P69" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="Q69" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
         <v>189</v>
       </c>
       <c r="I70" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -8254,7 +8254,7 @@
         <v>23</v>
       </c>
       <c r="N70" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O70" t="s">
         <v>24</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -8277,10 +8277,10 @@
         <v>245</v>
       </c>
       <c r="D71" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E71" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="F71" t="s">
         <v>1072</v>
@@ -8289,10 +8289,10 @@
         <v>1072</v>
       </c>
       <c r="H71" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I71" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
@@ -8307,15 +8307,15 @@
         <v>24</v>
       </c>
       <c r="P71" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="Q71" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -8339,7 +8339,7 @@
         <v>816</v>
       </c>
       <c r="I72" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -8386,7 +8386,7 @@
         <v>816</v>
       </c>
       <c r="I73" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -8400,16 +8400,16 @@
       <c r="O73" t="s">
         <v>24</v>
       </c>
-      <c r="P73" s="3" t="s">
-        <v>1383</v>
+      <c r="P73" t="s">
+        <v>1376</v>
       </c>
       <c r="Q73" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -8433,7 +8433,7 @@
         <v>1067</v>
       </c>
       <c r="I74" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
@@ -8448,21 +8448,21 @@
         <v>23</v>
       </c>
       <c r="N74" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O74" t="s">
         <v>24</v>
       </c>
-      <c r="P74" s="3" t="s">
-        <v>1385</v>
+      <c r="P74" t="s">
+        <v>1378</v>
       </c>
       <c r="Q74" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -8486,7 +8486,7 @@
         <v>1068</v>
       </c>
       <c r="I75" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -8501,21 +8501,21 @@
         <v>23</v>
       </c>
       <c r="N75" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O75" t="s">
         <v>24</v>
       </c>
-      <c r="P75" s="3" t="s">
-        <v>1386</v>
+      <c r="P75" t="s">
+        <v>1379</v>
       </c>
       <c r="Q75" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -8524,10 +8524,10 @@
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E76" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F76" t="s">
         <v>1072</v>
@@ -8536,10 +8536,10 @@
         <v>1072</v>
       </c>
       <c r="H76" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I76" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -8548,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="M76" t="s">
         <v>1074</v>
@@ -8556,16 +8556,16 @@
       <c r="O76" t="s">
         <v>24</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>1387</v>
+      <c r="P76" t="s">
+        <v>1380</v>
       </c>
       <c r="Q76" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -8586,10 +8586,10 @@
         <v>1072</v>
       </c>
       <c r="H77" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="I77" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -8598,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="M77" t="s">
         <v>1074</v>
@@ -8606,16 +8606,16 @@
       <c r="O77" t="s">
         <v>24</v>
       </c>
-      <c r="P77" s="3" t="s">
-        <v>1391</v>
+      <c r="P77" t="s">
+        <v>1384</v>
       </c>
       <c r="Q77" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -8624,10 +8624,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E78" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="F78" t="s">
         <v>1072</v>
@@ -8636,10 +8636,10 @@
         <v>1072</v>
       </c>
       <c r="H78" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="I78" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -8648,27 +8648,27 @@
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="M78" t="s">
         <v>1074</v>
       </c>
       <c r="N78" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="O78" t="s">
         <v>24</v>
       </c>
-      <c r="P78" s="3" t="s">
-        <v>1394</v>
+      <c r="P78" t="s">
+        <v>1387</v>
       </c>
       <c r="Q78" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -8692,7 +8692,7 @@
         <v>1053</v>
       </c>
       <c r="I79" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>23</v>
       </c>
       <c r="N79" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O79" t="s">
         <v>24</v>
@@ -8745,7 +8745,7 @@
         <v>351</v>
       </c>
       <c r="I80" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -8760,7 +8760,7 @@
         <v>23</v>
       </c>
       <c r="N80" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O80" t="s">
         <v>24</v>
@@ -8798,7 +8798,7 @@
         <v>725</v>
       </c>
       <c r="I81" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>23</v>
       </c>
       <c r="N81" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O81" t="s">
         <v>24</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -8851,7 +8851,7 @@
         <v>813</v>
       </c>
       <c r="I82" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
@@ -8898,7 +8898,7 @@
         <v>409</v>
       </c>
       <c r="I83" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
@@ -8913,7 +8913,7 @@
         <v>23</v>
       </c>
       <c r="N83" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O83" t="s">
         <v>24</v>
@@ -8951,7 +8951,7 @@
         <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -8966,7 +8966,7 @@
         <v>23</v>
       </c>
       <c r="N84" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O84" t="s">
         <v>24</v>
@@ -9004,7 +9004,7 @@
         <v>225</v>
       </c>
       <c r="I85" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
@@ -9019,7 +9019,7 @@
         <v>23</v>
       </c>
       <c r="N85" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O85" t="s">
         <v>24</v>
@@ -9057,7 +9057,7 @@
         <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -9072,7 +9072,7 @@
         <v>23</v>
       </c>
       <c r="N86" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O86" t="s">
         <v>24</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -9110,7 +9110,7 @@
         <v>837</v>
       </c>
       <c r="I87" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>23</v>
       </c>
       <c r="N88" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O88" t="s">
         <v>24</v>
@@ -9210,7 +9210,7 @@
         <v>71</v>
       </c>
       <c r="I89" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -9225,7 +9225,7 @@
         <v>23</v>
       </c>
       <c r="N89" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O89" t="s">
         <v>24</v>
@@ -9263,7 +9263,7 @@
         <v>1012</v>
       </c>
       <c r="I90" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -9278,7 +9278,7 @@
         <v>23</v>
       </c>
       <c r="N90" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O90" t="s">
         <v>24</v>
@@ -9316,7 +9316,7 @@
         <v>427</v>
       </c>
       <c r="I91" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
@@ -9331,7 +9331,7 @@
         <v>23</v>
       </c>
       <c r="N91" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O91" t="s">
         <v>24</v>
@@ -9369,7 +9369,7 @@
         <v>928</v>
       </c>
       <c r="I92" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>23</v>
       </c>
       <c r="N92" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O92" t="s">
         <v>24</v>
@@ -9422,7 +9422,7 @@
         <v>463</v>
       </c>
       <c r="I93" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
@@ -9437,7 +9437,7 @@
         <v>23</v>
       </c>
       <c r="N93" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O93" t="s">
         <v>24</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -9475,7 +9475,7 @@
         <v>1021</v>
       </c>
       <c r="I94" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
@@ -9490,7 +9490,7 @@
         <v>23</v>
       </c>
       <c r="N94" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O94" t="s">
         <v>24</v>
@@ -9528,7 +9528,7 @@
         <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
@@ -9543,7 +9543,7 @@
         <v>23</v>
       </c>
       <c r="N95" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O95" t="s">
         <v>24</v>
@@ -9581,7 +9581,7 @@
         <v>689</v>
       </c>
       <c r="I96" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>23</v>
       </c>
       <c r="N96" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O96" t="s">
         <v>24</v>
@@ -9610,7 +9610,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -9634,7 +9634,7 @@
         <v>901</v>
       </c>
       <c r="I97" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
@@ -9649,7 +9649,7 @@
         <v>23</v>
       </c>
       <c r="N97" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O97" t="s">
         <v>24</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -9672,22 +9672,22 @@
         <v>54</v>
       </c>
       <c r="D98" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E98" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F98" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G98" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H98" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I98" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J98" t="b">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="M98" t="s">
         <v>1074</v>
@@ -9705,15 +9705,15 @@
         <v>24</v>
       </c>
       <c r="P98" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="Q98" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -9737,7 +9737,7 @@
         <v>1057</v>
       </c>
       <c r="I99" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
@@ -9752,7 +9752,7 @@
         <v>23</v>
       </c>
       <c r="N99" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O99" t="s">
         <v>24</v>
@@ -9790,7 +9790,7 @@
         <v>595</v>
       </c>
       <c r="I100" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -9805,7 +9805,7 @@
         <v>23</v>
       </c>
       <c r="N100" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O100" t="s">
         <v>24</v>
@@ -9843,7 +9843,7 @@
         <v>207</v>
       </c>
       <c r="I101" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>23</v>
       </c>
       <c r="N101" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O101" t="s">
         <v>24</v>
@@ -9896,7 +9896,7 @@
         <v>261</v>
       </c>
       <c r="I102" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>23</v>
       </c>
       <c r="N102" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O102" t="s">
         <v>24</v>
@@ -9949,7 +9949,7 @@
         <v>445</v>
       </c>
       <c r="I103" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>23</v>
       </c>
       <c r="N103" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O103" t="s">
         <v>24</v>
@@ -9978,7 +9978,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
@@ -10002,7 +10002,7 @@
         <v>805</v>
       </c>
       <c r="I104" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -10049,7 +10049,7 @@
         <v>583</v>
       </c>
       <c r="I105" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -10064,7 +10064,7 @@
         <v>23</v>
       </c>
       <c r="N105" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O105" t="s">
         <v>24</v>
@@ -10078,7 +10078,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
@@ -10102,7 +10102,7 @@
         <v>887</v>
       </c>
       <c r="I106" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
@@ -10117,7 +10117,7 @@
         <v>23</v>
       </c>
       <c r="N106" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O106" t="s">
         <v>24</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
@@ -10155,7 +10155,7 @@
         <v>1043</v>
       </c>
       <c r="I107" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
@@ -10170,7 +10170,7 @@
         <v>23</v>
       </c>
       <c r="N107" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O107" t="s">
         <v>24</v>
@@ -10208,7 +10208,7 @@
         <v>790</v>
       </c>
       <c r="I108" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -10255,7 +10255,7 @@
         <v>911</v>
       </c>
       <c r="I109" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
@@ -10270,7 +10270,7 @@
         <v>23</v>
       </c>
       <c r="N109" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O109" t="s">
         <v>24</v>
@@ -10308,7 +10308,7 @@
         <v>607</v>
       </c>
       <c r="I110" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>23</v>
       </c>
       <c r="N110" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O110" t="s">
         <v>24</v>
@@ -10361,7 +10361,7 @@
         <v>101</v>
       </c>
       <c r="I111" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>23</v>
       </c>
       <c r="N111" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O111" t="s">
         <v>24</v>
@@ -10414,7 +10414,7 @@
         <v>255</v>
       </c>
       <c r="I112" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -10429,7 +10429,7 @@
         <v>23</v>
       </c>
       <c r="N112" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O112" t="s">
         <v>24</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
@@ -10452,10 +10452,10 @@
         <v>101</v>
       </c>
       <c r="D113" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E113" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F113" t="s">
         <v>1072</v>
@@ -10464,10 +10464,10 @@
         <v>1072</v>
       </c>
       <c r="H113" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="I113" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
@@ -10482,15 +10482,15 @@
         <v>24</v>
       </c>
       <c r="P113" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="Q113" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
@@ -10499,22 +10499,22 @@
         <v>202</v>
       </c>
       <c r="D114" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E114" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F114" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G114" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H114" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="I114" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J114" t="b">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="M114" t="s">
         <v>1074</v>
@@ -10532,15 +10532,15 @@
         <v>24</v>
       </c>
       <c r="P114" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="Q114" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
@@ -10549,22 +10549,22 @@
         <v>219</v>
       </c>
       <c r="D115" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="E115" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F115" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G115" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H115" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="I115" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J115" t="b">
         <v>0</v>
@@ -10573,27 +10573,27 @@
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="M115" t="s">
         <v>1074</v>
       </c>
       <c r="N115" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O115" t="s">
         <v>24</v>
       </c>
       <c r="P115" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="Q115" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
@@ -10602,22 +10602,22 @@
         <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="E116" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F116" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G116" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H116" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="I116" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J116" t="b">
         <v>0</v>
@@ -10626,22 +10626,22 @@
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="M116" t="s">
         <v>1074</v>
       </c>
       <c r="N116" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="O116" t="s">
         <v>24</v>
       </c>
       <c r="P116" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="Q116" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -10670,7 +10670,7 @@
         <v>786</v>
       </c>
       <c r="I117" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -10717,7 +10717,7 @@
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -10732,7 +10732,7 @@
         <v>23</v>
       </c>
       <c r="N118" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O118" t="s">
         <v>24</v>
@@ -10770,7 +10770,7 @@
         <v>231</v>
       </c>
       <c r="I119" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
@@ -10785,7 +10785,7 @@
         <v>23</v>
       </c>
       <c r="N119" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O119" t="s">
         <v>24</v>
@@ -10823,7 +10823,7 @@
         <v>131</v>
       </c>
       <c r="I120" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
@@ -10838,7 +10838,7 @@
         <v>23</v>
       </c>
       <c r="N120" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O120" t="s">
         <v>24</v>
@@ -10852,7 +10852,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="B121" t="s">
         <v>18</v>
@@ -10876,7 +10876,7 @@
         <v>1038</v>
       </c>
       <c r="I121" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -10891,7 +10891,7 @@
         <v>23</v>
       </c>
       <c r="N121" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O121" t="s">
         <v>24</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
@@ -10929,7 +10929,7 @@
         <v>955</v>
       </c>
       <c r="I122" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>23</v>
       </c>
       <c r="N122" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O122" t="s">
         <v>24</v>
@@ -10982,7 +10982,7 @@
         <v>321</v>
       </c>
       <c r="I123" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -10997,7 +10997,7 @@
         <v>23</v>
       </c>
       <c r="N123" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O123" t="s">
         <v>24</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
@@ -11035,7 +11035,7 @@
         <v>882</v>
       </c>
       <c r="I124" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J124" t="b">
         <v>1</v>
@@ -11050,7 +11050,7 @@
         <v>23</v>
       </c>
       <c r="N124" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O124" t="s">
         <v>24</v>
@@ -11088,7 +11088,7 @@
         <v>613</v>
       </c>
       <c r="I125" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -11103,7 +11103,7 @@
         <v>23</v>
       </c>
       <c r="N125" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O125" t="s">
         <v>24</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -11141,7 +11141,7 @@
         <v>950</v>
       </c>
       <c r="I126" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -11156,7 +11156,7 @@
         <v>23</v>
       </c>
       <c r="N126" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O126" t="s">
         <v>24</v>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
@@ -11179,22 +11179,22 @@
         <v>161</v>
       </c>
       <c r="D127" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="E127" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F127" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G127" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H127" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="I127" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J127" t="b">
         <v>0</v>
@@ -11203,22 +11203,22 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="M127" t="s">
         <v>1074</v>
       </c>
       <c r="N127" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="O127" t="s">
         <v>24</v>
       </c>
       <c r="P127" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="Q127" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -11247,7 +11247,7 @@
         <v>653</v>
       </c>
       <c r="I128" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -11262,7 +11262,7 @@
         <v>23</v>
       </c>
       <c r="N128" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O128" t="s">
         <v>24</v>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -11300,7 +11300,7 @@
         <v>866</v>
       </c>
       <c r="I129" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -11347,7 +11347,7 @@
         <v>493</v>
       </c>
       <c r="I130" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J130" t="b">
         <v>1</v>
@@ -11362,7 +11362,7 @@
         <v>23</v>
       </c>
       <c r="N130" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O130" t="s">
         <v>24</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B131" t="s">
         <v>18</v>
@@ -11400,7 +11400,7 @@
         <v>971</v>
       </c>
       <c r="I131" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>23</v>
       </c>
       <c r="N131" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O131" t="s">
         <v>24</v>
@@ -11453,7 +11453,7 @@
         <v>249</v>
       </c>
       <c r="I132" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J132" t="b">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>23</v>
       </c>
       <c r="N132" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O132" t="s">
         <v>24</v>
@@ -11482,7 +11482,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
@@ -11491,10 +11491,10 @@
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E133" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F133" t="s">
         <v>1072</v>
@@ -11503,10 +11503,10 @@
         <v>1072</v>
       </c>
       <c r="H133" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="I133" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
@@ -11521,15 +11521,15 @@
         <v>24</v>
       </c>
       <c r="P133" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="Q133" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
@@ -11538,22 +11538,22 @@
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E134" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="F134" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G134" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H134" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="I134" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
@@ -11562,22 +11562,22 @@
         <v>1</v>
       </c>
       <c r="L134" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="M134" t="s">
         <v>1074</v>
       </c>
       <c r="N134" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="O134" t="s">
         <v>24</v>
       </c>
       <c r="P134" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="Q134" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -11606,7 +11606,7 @@
         <v>387</v>
       </c>
       <c r="I135" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -11621,7 +11621,7 @@
         <v>23</v>
       </c>
       <c r="N135" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O135" t="s">
         <v>24</v>
@@ -11659,7 +11659,7 @@
         <v>535</v>
       </c>
       <c r="I136" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -11674,7 +11674,7 @@
         <v>23</v>
       </c>
       <c r="N136" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O136" t="s">
         <v>24</v>
@@ -11712,7 +11712,7 @@
         <v>565</v>
       </c>
       <c r="I137" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -11727,7 +11727,7 @@
         <v>23</v>
       </c>
       <c r="N137" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O137" t="s">
         <v>24</v>
@@ -11765,7 +11765,7 @@
         <v>719</v>
       </c>
       <c r="I138" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
@@ -11780,7 +11780,7 @@
         <v>23</v>
       </c>
       <c r="N138" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O138" t="s">
         <v>24</v>
@@ -11818,7 +11818,7 @@
         <v>795</v>
       </c>
       <c r="I139" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
@@ -11841,7 +11841,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B140" t="s">
         <v>18</v>
@@ -11850,10 +11850,10 @@
         <v>710</v>
       </c>
       <c r="D140" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E140" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F140" t="s">
         <v>1072</v>
@@ -11862,10 +11862,10 @@
         <v>1072</v>
       </c>
       <c r="H140" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="I140" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -11874,22 +11874,22 @@
         <v>1</v>
       </c>
       <c r="L140" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="M140" t="s">
         <v>1074</v>
       </c>
       <c r="N140" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O140" t="s">
         <v>24</v>
       </c>
       <c r="P140" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="Q140" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -11918,7 +11918,7 @@
         <v>285</v>
       </c>
       <c r="I141" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -11933,7 +11933,7 @@
         <v>23</v>
       </c>
       <c r="N141" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O141" t="s">
         <v>24</v>
@@ -11971,7 +11971,7 @@
         <v>397</v>
       </c>
       <c r="I142" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
@@ -11986,7 +11986,7 @@
         <v>23</v>
       </c>
       <c r="N142" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O142" t="s">
         <v>24</v>
@@ -12024,7 +12024,7 @@
         <v>381</v>
       </c>
       <c r="I143" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -12039,7 +12039,7 @@
         <v>23</v>
       </c>
       <c r="N143" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O143" t="s">
         <v>24</v>
@@ -12077,7 +12077,7 @@
         <v>809</v>
       </c>
       <c r="I144" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
@@ -12100,7 +12100,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B145" t="s">
         <v>18</v>
@@ -12109,22 +12109,22 @@
         <v>200</v>
       </c>
       <c r="D145" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E145" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="F145" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G145" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H145" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="I145" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
@@ -12133,22 +12133,22 @@
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="M145" t="s">
         <v>1074</v>
       </c>
       <c r="N145" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="O145" t="s">
         <v>24</v>
       </c>
       <c r="P145" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="Q145" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -12177,7 +12177,7 @@
         <v>917</v>
       </c>
       <c r="I146" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -12192,7 +12192,7 @@
         <v>23</v>
       </c>
       <c r="N146" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O146" t="s">
         <v>24</v>
@@ -12230,7 +12230,7 @@
         <v>243</v>
       </c>
       <c r="I147" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -12245,7 +12245,7 @@
         <v>23</v>
       </c>
       <c r="N147" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O147" t="s">
         <v>24</v>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
@@ -12283,7 +12283,7 @@
         <v>857</v>
       </c>
       <c r="I148" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="B149" t="s">
         <v>18</v>
@@ -12330,7 +12330,7 @@
         <v>1001</v>
       </c>
       <c r="I149" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
@@ -12345,7 +12345,7 @@
         <v>23</v>
       </c>
       <c r="N149" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O149" t="s">
         <v>24</v>
@@ -12383,7 +12383,7 @@
         <v>701</v>
       </c>
       <c r="I150" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J150" t="b">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>23</v>
       </c>
       <c r="N150" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O150" t="s">
         <v>24</v>
@@ -12436,7 +12436,7 @@
         <v>345</v>
       </c>
       <c r="I151" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -12451,7 +12451,7 @@
         <v>23</v>
       </c>
       <c r="N151" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O151" t="s">
         <v>24</v>
@@ -12489,7 +12489,7 @@
         <v>816</v>
       </c>
       <c r="I152" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
@@ -12536,7 +12536,7 @@
         <v>457</v>
       </c>
       <c r="I153" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
@@ -12551,7 +12551,7 @@
         <v>23</v>
       </c>
       <c r="N153" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O153" t="s">
         <v>24</v>
@@ -12589,7 +12589,7 @@
         <v>177</v>
       </c>
       <c r="I154" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
@@ -12604,7 +12604,7 @@
         <v>23</v>
       </c>
       <c r="N154" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O154" t="s">
         <v>24</v>
@@ -12642,7 +12642,7 @@
         <v>577</v>
       </c>
       <c r="I155" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J155" t="b">
         <v>1</v>
@@ -12657,7 +12657,7 @@
         <v>23</v>
       </c>
       <c r="N155" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O155" t="s">
         <v>24</v>
@@ -12695,7 +12695,7 @@
         <v>35</v>
       </c>
       <c r="I156" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J156" t="b">
         <v>1</v>
@@ -12710,7 +12710,7 @@
         <v>23</v>
       </c>
       <c r="N156" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O156" t="s">
         <v>24</v>
@@ -12748,7 +12748,7 @@
         <v>113</v>
       </c>
       <c r="I157" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
@@ -12763,7 +12763,7 @@
         <v>23</v>
       </c>
       <c r="N157" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O157" t="s">
         <v>24</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
@@ -12801,7 +12801,7 @@
         <v>906</v>
       </c>
       <c r="I158" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
@@ -12816,7 +12816,7 @@
         <v>23</v>
       </c>
       <c r="N158" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O158" t="s">
         <v>24</v>
@@ -12854,7 +12854,7 @@
         <v>333</v>
       </c>
       <c r="I159" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -12869,7 +12869,7 @@
         <v>23</v>
       </c>
       <c r="N159" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O159" t="s">
         <v>24</v>
@@ -12907,7 +12907,7 @@
         <v>237</v>
       </c>
       <c r="I160" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J160" t="b">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>23</v>
       </c>
       <c r="N160" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O160" t="s">
         <v>24</v>
@@ -12960,7 +12960,7 @@
         <v>125</v>
       </c>
       <c r="I161" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
@@ -12975,7 +12975,7 @@
         <v>23</v>
       </c>
       <c r="N161" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O161" t="s">
         <v>24</v>
@@ -13013,7 +13013,7 @@
         <v>641</v>
       </c>
       <c r="I162" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J162" t="b">
         <v>1</v>
@@ -13028,7 +13028,7 @@
         <v>23</v>
       </c>
       <c r="N162" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O162" t="s">
         <v>24</v>
@@ -13066,7 +13066,7 @@
         <v>29</v>
       </c>
       <c r="I163" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J163" t="b">
         <v>1</v>
@@ -13081,7 +13081,7 @@
         <v>23</v>
       </c>
       <c r="N163" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O163" t="s">
         <v>24</v>
@@ -13119,7 +13119,7 @@
         <v>159</v>
       </c>
       <c r="I164" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
@@ -13134,7 +13134,7 @@
         <v>23</v>
       </c>
       <c r="N164" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O164" t="s">
         <v>24</v>
@@ -13172,7 +13172,7 @@
         <v>601</v>
       </c>
       <c r="I165" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -13187,7 +13187,7 @@
         <v>23</v>
       </c>
       <c r="N165" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O165" t="s">
         <v>24</v>
@@ -13225,7 +13225,7 @@
         <v>800</v>
       </c>
       <c r="I166" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
@@ -13272,7 +13272,7 @@
         <v>517</v>
       </c>
       <c r="I167" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J167" t="b">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>23</v>
       </c>
       <c r="N167" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O167" t="s">
         <v>24</v>
@@ -13325,7 +13325,7 @@
         <v>363</v>
       </c>
       <c r="I168" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J168" t="b">
         <v>1</v>
@@ -13340,7 +13340,7 @@
         <v>23</v>
       </c>
       <c r="N168" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O168" t="s">
         <v>24</v>
@@ -13354,7 +13354,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B169" t="s">
         <v>18</v>
@@ -13378,7 +13378,7 @@
         <v>877</v>
       </c>
       <c r="I169" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>23</v>
       </c>
       <c r="N169" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O169" t="s">
         <v>24</v>
@@ -13431,7 +13431,7 @@
         <v>767</v>
       </c>
       <c r="I170" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -13446,7 +13446,7 @@
         <v>23</v>
       </c>
       <c r="N170" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O170" t="s">
         <v>24</v>
@@ -13460,19 +13460,19 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171">
         <v>272</v>
       </c>
       <c r="D171" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E171" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F171" t="s">
         <v>1072</v>
@@ -13481,10 +13481,10 @@
         <v>1072</v>
       </c>
       <c r="H171" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="I171" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -13493,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="L171" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="M171" t="s">
         <v>1074</v>
@@ -13501,28 +13501,28 @@
       <c r="O171" t="s">
         <v>24</v>
       </c>
-      <c r="P171" s="3" t="s">
-        <v>1105</v>
+      <c r="P171" t="s">
+        <v>1101</v>
       </c>
       <c r="Q171" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172">
         <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="E172" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="F172" t="s">
         <v>1072</v>
@@ -13531,10 +13531,10 @@
         <v>1072</v>
       </c>
       <c r="H172" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="I172" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="L172" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="M172" t="s">
         <v>1074</v>
@@ -13551,11 +13551,11 @@
       <c r="O172" t="s">
         <v>24</v>
       </c>
-      <c r="P172" s="3" t="s">
-        <v>1131</v>
+      <c r="P172" t="s">
+        <v>1126</v>
       </c>
       <c r="Q172" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -13584,7 +13584,7 @@
         <v>749</v>
       </c>
       <c r="I173" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>23</v>
       </c>
       <c r="N173" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O173" t="s">
         <v>24</v>
@@ -13637,7 +13637,7 @@
         <v>945</v>
       </c>
       <c r="I174" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
@@ -13652,7 +13652,7 @@
         <v>23</v>
       </c>
       <c r="N174" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O174" t="s">
         <v>24</v>
@@ -13690,7 +13690,7 @@
         <v>707</v>
       </c>
       <c r="I175" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
@@ -13705,7 +13705,7 @@
         <v>23</v>
       </c>
       <c r="N175" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O175" t="s">
         <v>24</v>
@@ -13743,7 +13743,7 @@
         <v>737</v>
       </c>
       <c r="I176" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>23</v>
       </c>
       <c r="N176" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O176" t="s">
         <v>24</v>
@@ -13772,7 +13772,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B177" t="s">
         <v>18</v>
@@ -13781,22 +13781,22 @@
         <v>117</v>
       </c>
       <c r="D177" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="E177" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F177" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G177" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H177" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="I177" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J177" t="b">
         <v>0</v>
@@ -13805,22 +13805,22 @@
         <v>1</v>
       </c>
       <c r="L177" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="M177" t="s">
         <v>1074</v>
       </c>
       <c r="N177" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O177" t="s">
         <v>24</v>
       </c>
       <c r="P177" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="Q177" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
@@ -13849,7 +13849,7 @@
         <v>966</v>
       </c>
       <c r="I178" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -13864,7 +13864,7 @@
         <v>23</v>
       </c>
       <c r="N178" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O178" t="s">
         <v>24</v>
@@ -13902,7 +13902,7 @@
         <v>553</v>
       </c>
       <c r="I179" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
@@ -13917,7 +13917,7 @@
         <v>23</v>
       </c>
       <c r="N179" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O179" t="s">
         <v>24</v>
@@ -13955,7 +13955,7 @@
         <v>273</v>
       </c>
       <c r="I180" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
@@ -13970,7 +13970,7 @@
         <v>23</v>
       </c>
       <c r="N180" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O180" t="s">
         <v>24</v>
@@ -14008,7 +14008,7 @@
         <v>291</v>
       </c>
       <c r="I181" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -14023,7 +14023,7 @@
         <v>23</v>
       </c>
       <c r="N181" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O181" t="s">
         <v>24</v>
@@ -14061,7 +14061,7 @@
         <v>153</v>
       </c>
       <c r="I182" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>23</v>
       </c>
       <c r="N182" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O182" t="s">
         <v>24</v>
@@ -14114,7 +14114,7 @@
         <v>451</v>
       </c>
       <c r="I183" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -14129,7 +14129,7 @@
         <v>23</v>
       </c>
       <c r="N183" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O183" t="s">
         <v>24</v>
@@ -14167,7 +14167,7 @@
         <v>825</v>
       </c>
       <c r="I184" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
@@ -14190,7 +14190,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -14199,10 +14199,10 @@
         <v>51</v>
       </c>
       <c r="D185" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="E185" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F185" t="s">
         <v>1072</v>
@@ -14211,10 +14211,10 @@
         <v>1072</v>
       </c>
       <c r="H185" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I185" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
@@ -14223,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="L185" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="M185" t="s">
         <v>1074</v>
@@ -14232,15 +14232,15 @@
         <v>24</v>
       </c>
       <c r="P185" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="Q185" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="B186" t="s">
         <v>18</v>
@@ -14249,10 +14249,10 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E186" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F186" t="s">
         <v>1072</v>
@@ -14261,10 +14261,10 @@
         <v>1072</v>
       </c>
       <c r="H186" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="I186" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="M186" t="s">
         <v>1074</v>
@@ -14282,15 +14282,15 @@
         <v>24</v>
       </c>
       <c r="P186" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="Q186" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B187" t="s">
         <v>18</v>
@@ -14299,10 +14299,10 @@
         <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E187" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F187" t="s">
         <v>1072</v>
@@ -14311,10 +14311,10 @@
         <v>1072</v>
       </c>
       <c r="H187" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="I187" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -14329,10 +14329,10 @@
         <v>24</v>
       </c>
       <c r="P187" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="Q187" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -14361,7 +14361,7 @@
         <v>761</v>
       </c>
       <c r="I188" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
@@ -14376,7 +14376,7 @@
         <v>23</v>
       </c>
       <c r="N188" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O188" t="s">
         <v>24</v>
@@ -14414,7 +14414,7 @@
         <v>647</v>
       </c>
       <c r="I189" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>23</v>
       </c>
       <c r="N189" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O189" t="s">
         <v>24</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B190" t="s">
         <v>18</v>
@@ -14452,10 +14452,10 @@
         <v>98</v>
       </c>
       <c r="D190" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E190" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="F190" t="s">
         <v>1072</v>
@@ -14464,10 +14464,10 @@
         <v>1072</v>
       </c>
       <c r="H190" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="I190" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
@@ -14476,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="M190" t="s">
         <v>1074</v>
@@ -14485,15 +14485,15 @@
         <v>24</v>
       </c>
       <c r="P190" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="Q190" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B191" t="s">
         <v>18</v>
@@ -14517,7 +14517,7 @@
         <v>1033</v>
       </c>
       <c r="I191" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>23</v>
       </c>
       <c r="N191" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O191" t="s">
         <v>24</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B192" t="s">
         <v>18</v>
@@ -14555,22 +14555,22 @@
         <v>697</v>
       </c>
       <c r="D192" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="E192" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F192" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G192" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H192" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I192" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J192" t="b">
         <v>0</v>
@@ -14579,27 +14579,27 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="M192" t="s">
         <v>1074</v>
       </c>
       <c r="N192" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="O192" t="s">
         <v>24</v>
       </c>
       <c r="P192" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="Q192" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="B193" t="s">
         <v>18</v>
@@ -14623,7 +14623,7 @@
         <v>981</v>
       </c>
       <c r="I193" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J193" t="b">
         <v>1</v>
@@ -14638,7 +14638,7 @@
         <v>23</v>
       </c>
       <c r="N193" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O193" t="s">
         <v>24</v>
@@ -14676,19 +14676,19 @@
         <v>1017</v>
       </c>
       <c r="I194" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
+        <v>23</v>
+      </c>
+      <c r="N194" t="s">
         <v>1291</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="M194" t="s">
-        <v>23</v>
-      </c>
-      <c r="N194" t="s">
-        <v>1296</v>
       </c>
       <c r="O194" t="s">
         <v>24</v>
@@ -14726,7 +14726,7 @@
         <v>165</v>
       </c>
       <c r="I195" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
@@ -14741,7 +14741,7 @@
         <v>23</v>
       </c>
       <c r="N195" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O195" t="s">
         <v>24</v>
@@ -14779,7 +14779,7 @@
         <v>475</v>
       </c>
       <c r="I196" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J196" t="b">
         <v>1</v>
@@ -14794,7 +14794,7 @@
         <v>23</v>
       </c>
       <c r="N196" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O196" t="s">
         <v>24</v>
@@ -14808,7 +14808,7 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B197" t="s">
         <v>18</v>
@@ -14832,7 +14832,7 @@
         <v>1048</v>
       </c>
       <c r="I197" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -14847,7 +14847,7 @@
         <v>23</v>
       </c>
       <c r="N197" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O197" t="s">
         <v>24</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="B198" t="s">
         <v>18</v>
@@ -14885,7 +14885,7 @@
         <v>1062</v>
       </c>
       <c r="I198" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
@@ -14900,7 +14900,7 @@
         <v>23</v>
       </c>
       <c r="N198" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O198" t="s">
         <v>24</v>
@@ -14938,7 +14938,7 @@
         <v>779</v>
       </c>
       <c r="I199" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J199" t="b">
         <v>1</v>
@@ -14953,7 +14953,7 @@
         <v>23</v>
       </c>
       <c r="N199" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O199" t="s">
         <v>24</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="B200" t="s">
         <v>18</v>
@@ -14976,22 +14976,22 @@
         <v>293</v>
       </c>
       <c r="D200" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="E200" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="F200" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G200" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H200" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="I200" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J200" t="b">
         <v>0</v>
@@ -15000,22 +15000,22 @@
         <v>1</v>
       </c>
       <c r="L200" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="M200" t="s">
         <v>1074</v>
       </c>
       <c r="N200" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O200" t="s">
         <v>24</v>
       </c>
       <c r="P200" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="Q200" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
@@ -15044,7 +15044,7 @@
         <v>213</v>
       </c>
       <c r="I201" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
@@ -15059,7 +15059,7 @@
         <v>23</v>
       </c>
       <c r="N201" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O201" t="s">
         <v>24</v>
@@ -15097,7 +15097,7 @@
         <v>375</v>
       </c>
       <c r="I202" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J202" t="b">
         <v>1</v>
@@ -15112,7 +15112,7 @@
         <v>23</v>
       </c>
       <c r="N202" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O202" t="s">
         <v>24</v>
@@ -15150,7 +15150,7 @@
         <v>171</v>
       </c>
       <c r="I203" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J203" t="b">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         <v>23</v>
       </c>
       <c r="N203" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O203" t="s">
         <v>24</v>
@@ -15203,7 +15203,7 @@
         <v>529</v>
       </c>
       <c r="I204" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J204" t="b">
         <v>1</v>
@@ -15218,7 +15218,7 @@
         <v>23</v>
       </c>
       <c r="N204" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O204" t="s">
         <v>24</v>
@@ -15232,7 +15232,7 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -15256,7 +15256,7 @@
         <v>960</v>
       </c>
       <c r="I205" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J205" t="b">
         <v>1</v>
@@ -15271,7 +15271,7 @@
         <v>23</v>
       </c>
       <c r="N205" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O205" t="s">
         <v>24</v>
@@ -15309,7 +15309,7 @@
         <v>309</v>
       </c>
       <c r="I206" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J206" t="b">
         <v>1</v>
@@ -15324,7 +15324,7 @@
         <v>23</v>
       </c>
       <c r="N206" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O206" t="s">
         <v>24</v>
@@ -15338,7 +15338,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
@@ -15362,7 +15362,7 @@
         <v>1007</v>
       </c>
       <c r="I207" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J207" t="b">
         <v>1</v>
@@ -15377,7 +15377,7 @@
         <v>23</v>
       </c>
       <c r="N207" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O207" t="s">
         <v>24</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B208" t="s">
         <v>18</v>
@@ -15400,22 +15400,22 @@
         <v>473</v>
       </c>
       <c r="D208" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E208" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F208" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G208" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H208" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="I208" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J208" t="b">
         <v>0</v>
@@ -15424,27 +15424,27 @@
         <v>1</v>
       </c>
       <c r="L208" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="M208" t="s">
         <v>1074</v>
       </c>
       <c r="N208" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="O208" t="s">
         <v>24</v>
       </c>
       <c r="P208" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="Q208" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B209" t="s">
         <v>18</v>
@@ -15453,10 +15453,10 @@
         <v>37</v>
       </c>
       <c r="D209" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E209" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F209" t="s">
         <v>1072</v>
@@ -15465,10 +15465,10 @@
         <v>1072</v>
       </c>
       <c r="H209" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="I209" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J209" t="b">
         <v>1</v>
@@ -15477,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="L209" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="M209" t="s">
         <v>1074</v>
@@ -15486,10 +15486,10 @@
         <v>24</v>
       </c>
       <c r="P209" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="Q209" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
@@ -15518,7 +15518,7 @@
         <v>59</v>
       </c>
       <c r="I210" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J210" t="b">
         <v>1</v>
@@ -15533,7 +15533,7 @@
         <v>23</v>
       </c>
       <c r="N210" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O210" t="s">
         <v>24</v>
@@ -15571,7 +15571,7 @@
         <v>95</v>
       </c>
       <c r="I211" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J211" t="b">
         <v>1</v>
@@ -15586,7 +15586,7 @@
         <v>23</v>
       </c>
       <c r="N211" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O211" t="s">
         <v>24</v>
@@ -15624,7 +15624,7 @@
         <v>671</v>
       </c>
       <c r="I212" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J212" t="b">
         <v>1</v>
@@ -15639,7 +15639,7 @@
         <v>23</v>
       </c>
       <c r="N212" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O212" t="s">
         <v>24</v>
@@ -15677,7 +15677,7 @@
         <v>183</v>
       </c>
       <c r="I213" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J213" t="b">
         <v>1</v>
@@ -15692,7 +15692,7 @@
         <v>23</v>
       </c>
       <c r="N213" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O213" t="s">
         <v>24</v>
@@ -15730,7 +15730,7 @@
         <v>577</v>
       </c>
       <c r="I214" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J214" t="b">
         <v>1</v>
@@ -15745,7 +15745,7 @@
         <v>23</v>
       </c>
       <c r="N214" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O214" t="s">
         <v>24</v>
@@ -15759,7 +15759,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="B215" t="s">
         <v>18</v>
@@ -15783,7 +15783,7 @@
         <v>939</v>
       </c>
       <c r="I215" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J215" t="b">
         <v>1</v>
@@ -15798,7 +15798,7 @@
         <v>23</v>
       </c>
       <c r="N215" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O215" t="s">
         <v>24</v>
@@ -15836,7 +15836,7 @@
         <v>1073</v>
       </c>
       <c r="I216" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J216" t="b">
         <v>1</v>
@@ -15862,7 +15862,7 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B217" t="s">
         <v>18</v>
@@ -15871,10 +15871,10 @@
         <v>195</v>
       </c>
       <c r="D217" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="E217" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F217" t="s">
         <v>1072</v>
@@ -15883,10 +15883,10 @@
         <v>1072</v>
       </c>
       <c r="H217" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I217" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -15895,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="L217" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="M217" t="s">
         <v>1074</v>
@@ -15904,10 +15904,10 @@
         <v>24</v>
       </c>
       <c r="P217" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="Q217" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
@@ -15936,7 +15936,7 @@
         <v>469</v>
       </c>
       <c r="I218" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J218" t="b">
         <v>1</v>
@@ -15951,7 +15951,7 @@
         <v>23</v>
       </c>
       <c r="N218" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O218" t="s">
         <v>24</v>
@@ -15989,7 +15989,7 @@
         <v>53</v>
       </c>
       <c r="I219" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J219" t="b">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>23</v>
       </c>
       <c r="N219" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O219" t="s">
         <v>24</v>
@@ -16042,7 +16042,7 @@
         <v>559</v>
       </c>
       <c r="I220" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -16057,7 +16057,7 @@
         <v>23</v>
       </c>
       <c r="N220" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O220" t="s">
         <v>24</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -16095,7 +16095,7 @@
         <v>976</v>
       </c>
       <c r="I221" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J221" t="b">
         <v>1</v>
@@ -16110,7 +16110,7 @@
         <v>23</v>
       </c>
       <c r="N221" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O221" t="s">
         <v>24</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="B222" t="s">
         <v>18</v>
@@ -16133,22 +16133,22 @@
         <v>312</v>
       </c>
       <c r="D222" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="E222" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F222" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="G222" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H222" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="I222" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J222" t="b">
         <v>0</v>
@@ -16157,22 +16157,22 @@
         <v>1</v>
       </c>
       <c r="L222" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="M222" t="s">
         <v>1074</v>
       </c>
       <c r="N222" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O222" t="s">
         <v>24</v>
       </c>
       <c r="P222" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="Q222" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
@@ -16201,7 +16201,7 @@
         <v>995</v>
       </c>
       <c r="I223" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J223" t="b">
         <v>1</v>
@@ -16216,7 +16216,7 @@
         <v>23</v>
       </c>
       <c r="N223" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O223" t="s">
         <v>24</v>
@@ -16254,7 +16254,7 @@
         <v>861</v>
       </c>
       <c r="I224" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J224" t="b">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>845</v>
       </c>
       <c r="I225" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J225" t="b">
         <v>1</v>
@@ -16348,7 +16348,7 @@
         <v>327</v>
       </c>
       <c r="I226" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J226" t="b">
         <v>1</v>
@@ -16363,7 +16363,7 @@
         <v>23</v>
       </c>
       <c r="N226" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O226" t="s">
         <v>24</v>
@@ -16401,7 +16401,7 @@
         <v>523</v>
       </c>
       <c r="I227" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J227" t="b">
         <v>1</v>
@@ -16416,7 +16416,7 @@
         <v>23</v>
       </c>
       <c r="N227" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O227" t="s">
         <v>24</v>
@@ -16430,7 +16430,7 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
@@ -16454,7 +16454,7 @@
         <v>976</v>
       </c>
       <c r="I228" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J228" t="b">
         <v>1</v>
@@ -16469,7 +16469,7 @@
         <v>23</v>
       </c>
       <c r="N228" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O228" t="s">
         <v>24</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
@@ -16507,7 +16507,7 @@
         <v>841</v>
       </c>
       <c r="I229" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J229" t="b">
         <v>1</v>
@@ -16554,7 +16554,7 @@
         <v>665</v>
       </c>
       <c r="I230" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J230" t="b">
         <v>1</v>
@@ -16569,7 +16569,7 @@
         <v>23</v>
       </c>
       <c r="N230" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O230" t="s">
         <v>24</v>
@@ -16607,7 +16607,7 @@
         <v>499</v>
       </c>
       <c r="I231" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J231" t="b">
         <v>1</v>
@@ -16622,7 +16622,7 @@
         <v>23</v>
       </c>
       <c r="N231" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O231" t="s">
         <v>24</v>
@@ -16636,7 +16636,7 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B232" t="s">
         <v>18</v>
@@ -16660,7 +16660,7 @@
         <v>922</v>
       </c>
       <c r="I232" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J232" t="b">
         <v>1</v>
@@ -16675,7 +16675,7 @@
         <v>23</v>
       </c>
       <c r="N232" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O232" t="s">
         <v>24</v>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B233" t="s">
         <v>18</v>
@@ -16713,7 +16713,7 @@
         <v>891</v>
       </c>
       <c r="I233" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J233" t="b">
         <v>1</v>
@@ -16728,7 +16728,7 @@
         <v>23</v>
       </c>
       <c r="N233" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O233" t="s">
         <v>24</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B234" t="s">
         <v>18</v>
@@ -16751,10 +16751,10 @@
         <v>158</v>
       </c>
       <c r="D234" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E234" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F234" t="s">
         <v>1072</v>
@@ -16763,10 +16763,10 @@
         <v>1072</v>
       </c>
       <c r="H234" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="I234" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J234" t="b">
         <v>1</v>
@@ -16775,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="L234" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="M234" t="s">
         <v>1074</v>
@@ -16784,15 +16784,15 @@
         <v>24</v>
       </c>
       <c r="P234" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="Q234" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B235" t="s">
         <v>18</v>
@@ -16801,10 +16801,10 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E235" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F235" t="s">
         <v>1072</v>
@@ -16813,10 +16813,10 @@
         <v>1072</v>
       </c>
       <c r="H235" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="I235" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J235" t="b">
         <v>1</v>
@@ -16831,10 +16831,10 @@
         <v>24</v>
       </c>
       <c r="P235" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="Q235" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
@@ -16863,7 +16863,7 @@
         <v>315</v>
       </c>
       <c r="I236" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J236" t="b">
         <v>1</v>
@@ -16878,7 +16878,7 @@
         <v>23</v>
       </c>
       <c r="N236" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O236" t="s">
         <v>24</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
